--- a/inst/shiny-examples/BCGcalc/external/RMD/files/OutputFileSubtabs.xlsx
+++ b/inst/shiny-examples/BCGcalc/external/RMD/files/OutputFileSubtabs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\shiny-examples\BCGcalc\external\RMD\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A6F450-EFB1-49B1-A294-9976FF70798A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B07DFA5-BD1F-4F28-B68C-41813DFA409F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="7" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="FileBuild_Merge" sheetId="3" r:id="rId4"/>
     <sheet name="Calc_BCG" sheetId="5" r:id="rId5"/>
     <sheet name="Calc_ThermPref" sheetId="6" r:id="rId6"/>
+    <sheet name="Calc_ModTherm" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>Description</t>
   </si>
@@ -212,6 +213,54 @@
   </si>
   <si>
     <t>Jen.Stamp@tetratech.com</t>
+  </si>
+  <si>
+    <t>xxx_modtherm_1markexcl</t>
+  </si>
+  <si>
+    <t>xxx_modtherm_2metval_all</t>
+  </si>
+  <si>
+    <t>xxx_modtherm_2metval_BCG</t>
+  </si>
+  <si>
+    <t>xxx_modtherm_3metmemb</t>
+  </si>
+  <si>
+    <t>xxx_modtherm_3metrules</t>
+  </si>
+  <si>
+    <t>xxx_modtherm_4levmemb</t>
+  </si>
+  <si>
+    <t>xxx_modtherm_5levassign</t>
+  </si>
+  <si>
+    <t>xxx_modtherm_6levflags</t>
+  </si>
+  <si>
+    <t>xxx_modtherm_6metflags</t>
+  </si>
+  <si>
+    <t>xxx_modtherm_RESULTS (csv)</t>
+  </si>
+  <si>
+    <t>xxx_modtherm_RESULTS (html)</t>
+  </si>
+  <si>
+    <t>values for bug metrics used in the Thermal Model (model + flags); the calculations are done with the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
+  </si>
+  <si>
+    <t>histogram showing distribution of samples across Thermal Model levels.</t>
+  </si>
+  <si>
+    <t>for each sample, thermal model output (primary, secondary levels and membership, continuous model score, narrative with and without pluses and minuses) plus flags (flag or NA)</t>
+  </si>
+  <si>
+    <t>results without the flags (primary, secondary levels and membership, continuous score, narrative with and without pluses and minuses)</t>
+  </si>
+  <si>
+    <t>Rules for each class x BCG level (metrics, thresholds, symbols). Rules are similar but not exactly the same. long data format</t>
   </si>
 </sst>
 </file>
@@ -613,7 +662,7 @@
   </sheetPr>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -1030,4 +1079,131 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8226433C-489A-4F3D-AEB5-F41FA1B97ACA}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="136.5703125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inst/shiny-examples/BCGcalc/external/RMD/files/OutputFileSubtabs.xlsx
+++ b/inst/shiny-examples/BCGcalc/external/RMD/files/OutputFileSubtabs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\shiny-examples\BCGcalc\external\RMD\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B07DFA5-BD1F-4F28-B68C-41813DFA409F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6C4C7C-58B7-49F6-A49F-D97762031668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="701" firstSheet="2" activeTab="6" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="7" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="FileBuild_IndexNameClass" sheetId="4" r:id="rId3"/>
     <sheet name="FileBuild_Merge" sheetId="3" r:id="rId4"/>
     <sheet name="Calc_BCG" sheetId="5" r:id="rId5"/>
-    <sheet name="Calc_ThermPref" sheetId="6" r:id="rId6"/>
-    <sheet name="Calc_ModTherm" sheetId="8" r:id="rId7"/>
+    <sheet name="FileBuild_IndexClassParam" sheetId="9" r:id="rId6"/>
+    <sheet name="FB_IndexClassParam_Cols" sheetId="10" r:id="rId7"/>
+    <sheet name="Calc_ThermPref" sheetId="6" r:id="rId8"/>
+    <sheet name="Calc_ModTherm" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="100">
   <si>
     <t>Description</t>
   </si>
@@ -261,6 +263,87 @@
   </si>
   <si>
     <t>Rules for each class x BCG level (metrics, thresholds, symbols). Rules are similar but not exactly the same. long data format</t>
+  </si>
+  <si>
+    <t>Original version</t>
+  </si>
+  <si>
+    <t>Added IndexClassParam</t>
+  </si>
+  <si>
+    <t>xxx_taxatrans_indexclass_RESULTS</t>
+  </si>
+  <si>
+    <t>Original input file with additional fields appended.  This file will be ready to run the Assign Index Class function in the File Builder section of the BCGcalc Shiny app.</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>EPSG_CALC</t>
+  </si>
+  <si>
+    <t>WSAREASQKM</t>
+  </si>
+  <si>
+    <t>elev_m</t>
+  </si>
+  <si>
+    <t>pslope_nhd</t>
+  </si>
+  <si>
+    <t>slopelenkm</t>
+  </si>
+  <si>
+    <t>gnis_name</t>
+  </si>
+  <si>
+    <t>streamorde</t>
+  </si>
+  <si>
+    <t>ftype</t>
+  </si>
+  <si>
+    <t>fcode</t>
+  </si>
+  <si>
+    <t>&lt;existing columns&gt;</t>
+  </si>
+  <si>
+    <t>EPSG value used to generate COMID</t>
+  </si>
+  <si>
+    <t>COMID</t>
+  </si>
+  <si>
+    <t>% NHDPlusV2 flowline slope (slope*100)</t>
+  </si>
+  <si>
+    <t>length of NHDPlusV2 flowline (which the slope is based on)</t>
+  </si>
+  <si>
+    <t>waterbody name based on NHDPlusV2</t>
+  </si>
+  <si>
+    <t>Strahler stream order. Source: NHD+ VAA file</t>
+  </si>
+  <si>
+    <t>Flowline type based on NHDPlusV2 (e.g., stream/river, artificial path, connector/ditch)</t>
+  </si>
+  <si>
+    <t>Flowline code based on NHDPlusV2</t>
+  </si>
+  <si>
+    <t>Mean elevation (meters) of local catchment area (km2) based on EPA StreamCat dataset (Hill et al. 2016) (not exact watershed delineation)</t>
+  </si>
+  <si>
+    <t>Total watershed area (km2) based on EPA StreamCat dataset (Hill et al. 2016) (not exact watershed delineation)</t>
+  </si>
+  <si>
+    <t>NHDplus COMID derived from StreamCat using latitude, longitude, and EPSG values provided by the user.</t>
+  </si>
+  <si>
+    <t>Columns from input data.  Latitude and Longitude fields will be moved to after COMID.</t>
   </si>
 </sst>
 </file>
@@ -660,10 +743,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,24 +754,40 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44963</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>44963</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>45078</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1023,6 +1122,165 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9087282C-EEAC-47C0-A95E-57ECCF66652A}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="88.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCDC5CA-D016-4BEF-A738-D76EAE004D04}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="127" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC02891-55F0-4D4F-8AD2-82CDF128973D}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1081,11 +1339,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8226433C-489A-4F3D-AEB5-F41FA1B97ACA}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/inst/shiny-examples/BCGcalc/external/RMD/files/OutputFileSubtabs.xlsx
+++ b/inst/shiny-examples/BCGcalc/external/RMD/files/OutputFileSubtabs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\shiny-examples\BCGcalc\external\RMD\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6C4C7C-58B7-49F6-A49F-D97762031668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59858991-F2E1-4DDE-9582-AEF1E1DB9168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="701" firstSheet="2" activeTab="6" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="701" firstSheet="2" activeTab="2" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="7" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>xxx_indexclass_0criteria</t>
   </si>
   <si>
-    <t>xxx_taxatrans_indexclass_1results</t>
-  </si>
-  <si>
     <t>Original input file with Index_Name and Index_Class fields added in; this file can be merged with the final output file from the 'Taxa Translator and Add Attribute' function via the 'Merge Files' function. The file will then be ready to run through the BCG calculator</t>
   </si>
   <si>
@@ -271,9 +268,6 @@
     <t>Added IndexClassParam</t>
   </si>
   <si>
-    <t>xxx_taxatrans_indexclass_RESULTS</t>
-  </si>
-  <si>
     <t>Original input file with additional fields appended.  This file will be ready to run the Assign Index Class function in the File Builder section of the BCGcalc Shiny app.</t>
   </si>
   <si>
@@ -344,6 +338,12 @@
   </si>
   <si>
     <t>Columns from input data.  Latitude and Longitude fields will be moved to after COMID.</t>
+  </si>
+  <si>
+    <t>xxx_indexclassparam_RESULTS</t>
+  </si>
+  <si>
+    <t>xxx_indexclass_1results</t>
   </si>
 </sst>
 </file>
@@ -756,7 +756,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -766,12 +766,12 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -779,7 +779,7 @@
         <v>44963</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -787,7 +787,7 @@
         <v>45078</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -826,7 +826,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -842,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -850,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -866,7 +866,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -874,7 +874,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79F2490-5015-4870-822C-849AAF4ACE02}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,7 +918,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -926,15 +926,15 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -970,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -978,15 +978,15 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1026,90 +1026,90 @@
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,15 +1149,15 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1169,7 +1169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCDC5CA-D016-4BEF-A738-D76EAE004D04}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1181,7 +1181,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1189,90 +1189,90 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1312,26 +1312,26 @@
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1371,90 +1371,90 @@
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">

--- a/inst/shiny-examples/BCGcalc/external/RMD/files/OutputFileSubtabs.xlsx
+++ b/inst/shiny-examples/BCGcalc/external/RMD/files/OutputFileSubtabs.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\shiny-examples\BCGcalc\external\RMD\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59858991-F2E1-4DDE-9582-AEF1E1DB9168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BE2C25-E46D-4D1E-BB2E-9381E0FA5932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="701" firstSheet="2" activeTab="2" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="6" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="7" r:id="rId1"/>
     <sheet name="FileBuild_TTAA" sheetId="1" r:id="rId2"/>
-    <sheet name="FileBuild_IndexNameClass" sheetId="4" r:id="rId3"/>
-    <sheet name="FileBuild_Merge" sheetId="3" r:id="rId4"/>
-    <sheet name="Calc_BCG" sheetId="5" r:id="rId5"/>
-    <sheet name="FileBuild_IndexClassParam" sheetId="9" r:id="rId6"/>
-    <sheet name="FB_IndexClassParam_Cols" sheetId="10" r:id="rId7"/>
+    <sheet name="FileBuild_IndexClassParam" sheetId="9" r:id="rId3"/>
+    <sheet name="FB_IndexClassParam_Cols" sheetId="10" r:id="rId4"/>
+    <sheet name="FileBuild_IndexNameClass" sheetId="4" r:id="rId5"/>
+    <sheet name="FileBuild_Merge" sheetId="3" r:id="rId6"/>
+    <sheet name="Calc_BCG" sheetId="5" r:id="rId7"/>
     <sheet name="Calc_ThermPref" sheetId="6" r:id="rId8"/>
     <sheet name="Calc_ModTherm" sheetId="8" r:id="rId9"/>
+    <sheet name="Calc_MTTI" sheetId="11" r:id="rId10"/>
+    <sheet name="Calc_BDI" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
   <si>
     <t>Description</t>
   </si>
@@ -160,12 +162,6 @@
     <t>Input file 2</t>
   </si>
   <si>
-    <t>xxx_bcgcalc_RESULTS (csv)</t>
-  </si>
-  <si>
-    <t>xxx_bcgcalc_RESULTS (html)</t>
-  </si>
-  <si>
     <t>original input file with an 'EXCLUDE' taxa column added in. It is a TRUE/FALSE field in which R marks redundant taxa as ‘TRUE’ based on the phylogeny fields in the input file. All 'Exclude’ decisions are sample-specific. A detailed description of the process that the R tool uses for marking redundant taxa is available upon request (Jen.Stamp@tetratech.com)</t>
   </si>
   <si>
@@ -241,12 +237,6 @@
     <t>xxx_modtherm_6metflags</t>
   </si>
   <si>
-    <t>xxx_modtherm_RESULTS (csv)</t>
-  </si>
-  <si>
-    <t>xxx_modtherm_RESULTS (html)</t>
-  </si>
-  <si>
     <t>values for bug metrics used in the Thermal Model (model + flags); the calculations are done with the BioMonTools R package (https://github.com/leppott/BioMonTools)</t>
   </si>
   <si>
@@ -344,6 +334,51 @@
   </si>
   <si>
     <t>xxx_indexclass_1results</t>
+  </si>
+  <si>
+    <t>Add Calc_MTTI</t>
+  </si>
+  <si>
+    <t>for each sample, MTTI model output plus flags (flag or NA)</t>
+  </si>
+  <si>
+    <t>xxx_MTTI_flags_1_metrics.csv</t>
+  </si>
+  <si>
+    <t>xxx_MTTI_flags_2_eval_long.csv</t>
+  </si>
+  <si>
+    <t>xxx_MTT_flags_3_eval_summary.csv</t>
+  </si>
+  <si>
+    <t>for each sample, BDI model output plus flags (flag or NA)</t>
+  </si>
+  <si>
+    <t>Metrics needed for flags.  Including min and max MTTI values per sample taxa.</t>
+  </si>
+  <si>
+    <t>boxplot showing distribution of samples across MTTI values.</t>
+  </si>
+  <si>
+    <t>xxx_MTTI_RESULTS.html</t>
+  </si>
+  <si>
+    <t>xxx_MTTI_RESULTS.csv</t>
+  </si>
+  <si>
+    <t>xxx_BDI_RESULTS.csv</t>
+  </si>
+  <si>
+    <t>xxx_modtherm_RESULTS.csv</t>
+  </si>
+  <si>
+    <t>xxx_modtherm_RESULTS.html</t>
+  </si>
+  <si>
+    <t>xxx_bcgcalc_RESULTS.csv</t>
+  </si>
+  <si>
+    <t>xxx_bcgcalc_RESULTS.html</t>
   </si>
 </sst>
 </file>
@@ -402,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -425,6 +460,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -743,10 +782,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +795,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -766,12 +805,12 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -779,7 +818,7 @@
         <v>44963</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -787,13 +826,139 @@
         <v>45078</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>45083</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{E37608BC-A119-4E3E-837F-24B39B5656AA}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCBBF59-2913-4C4D-BF48-C5D0EB7A6892}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90638112-B066-41D7-9E92-7D5E21BB891E}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -891,10 +1056,169 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9087282C-EEAC-47C0-A95E-57ECCF66652A}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="88.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCDC5CA-D016-4BEF-A738-D76EAE004D04}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="127" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79F2490-5015-4870-822C-849AAF4ACE02}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -931,7 +1255,7 @@
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -942,7 +1266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283C6984-BF98-4F5A-9A86-F6DED122E046}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -994,12 +1318,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E560A9A-B97C-4C71-B80B-6BD79D2219D9}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1353,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1037,7 +1361,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1045,7 +1369,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1053,7 +1377,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1061,7 +1385,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1069,7 +1393,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1077,7 +1401,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1085,7 +1409,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1093,187 +1417,28 @@
         <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9087282C-EEAC-47C0-A95E-57ECCF66652A}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="88.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCDC5CA-D016-4BEF-A738-D76EAE004D04}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="127" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" t="s">
-        <v>93</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1315,7 +1480,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1323,7 +1488,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1331,7 +1496,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1344,7 +1509,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,90 +1536,90 @@
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">

--- a/inst/shiny-examples/BCGcalc/external/RMD/files/OutputFileSubtabs.xlsx
+++ b/inst/shiny-examples/BCGcalc/external/RMD/files/OutputFileSubtabs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\shiny-examples\BCGcalc\external\RMD\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BE2C25-E46D-4D1E-BB2E-9381E0FA5932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BD46A0-876E-4F3F-A069-C7C4460D9F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="838" activeTab="6" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="838" xr2:uid="{038ACB90-5DA2-4F44-952D-B20E0777567B}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="7" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="113">
   <si>
     <t>Description</t>
   </si>
@@ -379,6 +379,12 @@
   </si>
   <si>
     <t>xxx_bcgcalc_RESULTS.html</t>
+  </si>
+  <si>
+    <t>xxx_BDI_1markexcl</t>
+  </si>
+  <si>
+    <t>Update BDI</t>
   </si>
 </sst>
 </file>
@@ -782,10 +788,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,6 +841,14 @@
       </c>
       <c r="B12" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>45155</v>
+      </c>
+      <c r="B13" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -922,10 +936,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90638112-B066-41D7-9E92-7D5E21BB891E}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,11 +964,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B4" s="10" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1322,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E560A9A-B97C-4C71-B80B-6BD79D2219D9}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
